--- a/writeups/projects/fellowship conference 2022/figures/excel_visuals/Critical Trials.xlsx
+++ b/writeups/projects/fellowship conference 2022/figures/excel_visuals/Critical Trials.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\Social.Influence_Speech.Perception\SI.SP\Stims\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel\Documents\SI.SP\writeups\projects\fellowship conference 2022\figures\excel_visuals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CC07E6-CB4C-4E96-83B3-2123B58F6954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CD3A4B-126F-4752-A852-82EAE37CD696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BE94E350-9BA2-40B7-B37A-9E00105A1A32}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="81">
   <si>
     <t>Vacation</t>
   </si>
@@ -58,9 +58,6 @@
     <t>Official</t>
   </si>
   <si>
-    <t>Neogtiate</t>
-  </si>
-  <si>
     <t>Machinery</t>
   </si>
   <si>
@@ -94,16 +91,10 @@
     <t>Efficient</t>
   </si>
   <si>
-    <t>Rehersal</t>
-  </si>
-  <si>
     <t>Reconcile</t>
   </si>
   <si>
     <t>Personal</t>
-  </si>
-  <si>
-    <t>Penninsula</t>
   </si>
   <si>
     <t>Parasite</t>
@@ -1287,10 +1278,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1324,7 +1314,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,17 +1409,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1464,7 +1453,7 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1473,7 +1462,7 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1512,13 +1501,10 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1534,74 +1520,92 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1615,9 +1619,6 @@
     <xf numFmtId="0" fontId="1" fillId="16" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1635,39 +1636,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="180"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1701,9 +1669,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1741,7 +1709,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1847,7 +1815,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1989,7 +1957,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1999,8 +1967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26893740-08BF-46AB-82EB-D9B605E89688}">
   <dimension ref="B2:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2017,1475 +1985,1484 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="U2" s="136" t="s">
+      <c r="U2" s="115" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="116"/>
+      <c r="W2" s="116"/>
+      <c r="Z2" s="115" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+    </row>
+    <row r="3" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="122" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="115" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="116"/>
+      <c r="Q3" s="115" t="s">
+        <v>42</v>
+      </c>
+      <c r="R3" s="115"/>
+      <c r="S3" s="117" t="s">
+        <v>34</v>
+      </c>
+      <c r="U3" s="47"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="46"/>
+      <c r="Y3" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="89"/>
+      <c r="AD3" s="89"/>
+      <c r="AE3" s="119" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF3" s="119"/>
+      <c r="AG3" s="119"/>
+    </row>
+    <row r="4" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="122"/>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="122"/>
+      <c r="K4" s="119"/>
+      <c r="L4" s="119"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="99" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="98" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="100" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="118"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="V4" s="44"/>
+      <c r="W4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="121"/>
+      <c r="Z4" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA4" s="67" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="69"/>
+      <c r="AE4" s="119"/>
+      <c r="AF4" s="119"/>
+      <c r="AG4" s="119"/>
+    </row>
+    <row r="5" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="122"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="119"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="O5" s="108" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q5" s="109" t="s">
+        <v>77</v>
+      </c>
+      <c r="R5" s="110" t="s">
+        <v>76</v>
+      </c>
+      <c r="S5" s="118"/>
+      <c r="T5" s="62"/>
+      <c r="U5" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="V5" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="X5" s="58"/>
+      <c r="Y5" s="121"/>
+      <c r="Z5" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA5" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="72"/>
+      <c r="AC5" s="73"/>
+      <c r="AE5" s="119"/>
+      <c r="AF5" s="119"/>
+      <c r="AG5" s="119"/>
+    </row>
+    <row r="6" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="90"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="122"/>
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="95" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="96" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="118"/>
+      <c r="T6" s="62"/>
+      <c r="U6" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="72" t="s">
+        <v>69</v>
+      </c>
+      <c r="W6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="58"/>
+      <c r="Y6" s="121"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="75"/>
+      <c r="AB6" s="76" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC6" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="119"/>
+    </row>
+    <row r="7" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="91"/>
+      <c r="H7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="122"/>
+      <c r="K7" s="119"/>
+      <c r="L7" s="119"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="118"/>
+      <c r="T7" s="62"/>
+      <c r="U7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="72" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="121"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
+      <c r="AB7" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE7" s="119"/>
+      <c r="AF7" s="119"/>
+      <c r="AG7" s="119"/>
+    </row>
+    <row r="8" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B8" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="122"/>
+      <c r="E8" s="119"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="123" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="N8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" s="118"/>
+      <c r="T8" s="62"/>
+      <c r="U8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="V8" s="72" t="s">
+        <v>73</v>
+      </c>
+      <c r="W8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="121"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AE8" s="119"/>
+      <c r="AF8" s="119"/>
+      <c r="AG8" s="119"/>
+    </row>
+    <row r="9" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="122"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="119"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="118"/>
+      <c r="T9" s="62"/>
+      <c r="U9" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="72" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" s="58"/>
+      <c r="Y9" s="121"/>
+      <c r="Z9" s="66"/>
+      <c r="AA9" s="67"/>
+      <c r="AB9" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC9" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE9" s="119"/>
+      <c r="AF9" s="119"/>
+      <c r="AG9" s="119"/>
+    </row>
+    <row r="10" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="122"/>
+      <c r="E10" s="119"/>
+      <c r="F10" s="119"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="122" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="N10" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="O10" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="R10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="S10" s="118"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V10" s="72" t="s">
+        <v>70</v>
+      </c>
+      <c r="W10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="58"/>
+      <c r="Y10" s="121"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="71"/>
+      <c r="AB10" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC10" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="119"/>
+      <c r="AG10" s="119"/>
+    </row>
+    <row r="11" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="122"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="122"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="N11" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="118"/>
+      <c r="T11" s="62"/>
+      <c r="U11" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="V11" s="72"/>
+      <c r="W11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="58"/>
+      <c r="Y11" s="121"/>
+      <c r="Z11" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="77"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="119"/>
+      <c r="AG11" s="119"/>
+    </row>
+    <row r="12" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B12" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="122"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="119"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J12" s="122"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="N12" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="R12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="S12" s="118"/>
+      <c r="T12" s="62"/>
+      <c r="U12" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="V12" s="72">
+        <v>1</v>
+      </c>
+      <c r="W12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="58"/>
+      <c r="Y12" s="121"/>
+      <c r="Z12" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA12" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB12" s="80"/>
+      <c r="AC12" s="81"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+    </row>
+    <row r="13" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="122"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="91"/>
+      <c r="H13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="J13" s="122"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="N13" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="S13" s="118"/>
+      <c r="T13" s="62"/>
+      <c r="U13" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="V13" s="44"/>
+      <c r="W13" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="X13" s="58"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+    </row>
+    <row r="14" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="122"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="122"/>
+      <c r="K14" s="119"/>
+      <c r="L14" s="119"/>
+      <c r="N14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O14" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R14" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S14" s="118"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="55"/>
+      <c r="W14" s="54"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="121"/>
+      <c r="Z14" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA14" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB14" s="83"/>
+      <c r="AC14" s="69"/>
+      <c r="AE14" s="119" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF14" s="119"/>
+      <c r="AG14" s="119"/>
+    </row>
+    <row r="15" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="122"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="122"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="119"/>
+      <c r="N15" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="R15" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="S15" s="118"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="53"/>
+      <c r="V15" s="51"/>
+      <c r="W15" s="52"/>
+      <c r="X15" s="58"/>
+      <c r="Y15" s="121"/>
+      <c r="Z15" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" s="84" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB15" s="75"/>
+      <c r="AC15" s="73"/>
+      <c r="AE15" s="119"/>
+      <c r="AF15" s="119"/>
+      <c r="AG15" s="119"/>
+    </row>
+    <row r="16" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="122"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="91"/>
+      <c r="H16" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J16" s="122"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="S16" s="118"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="V16" s="51"/>
+      <c r="W16" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="X16" s="58"/>
+      <c r="Y16" s="121"/>
+      <c r="Z16" s="74"/>
+      <c r="AA16" s="72"/>
+      <c r="AB16" s="85" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC16" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+    </row>
+    <row r="17" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="122"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="119"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="122"/>
+      <c r="K17" s="119"/>
+      <c r="L17" s="119"/>
+      <c r="N17" s="119" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="119"/>
+      <c r="P17" s="119"/>
+      <c r="Q17" s="119"/>
+      <c r="R17" s="119"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="V17" s="75" t="s">
+        <v>68</v>
+      </c>
+      <c r="W17" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="X17" s="58"/>
+      <c r="Y17" s="121"/>
+      <c r="Z17" s="78"/>
+      <c r="AA17" s="86"/>
+      <c r="AB17" s="87" t="s">
+        <v>46</v>
+      </c>
+      <c r="AC17" s="81" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE17" s="119"/>
+      <c r="AF17" s="119"/>
+      <c r="AG17" s="119"/>
+    </row>
+    <row r="18" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="122"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="119"/>
+      <c r="G18" s="91"/>
+      <c r="H18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="122"/>
+      <c r="K18" s="119"/>
+      <c r="L18" s="119"/>
+      <c r="N18" s="119"/>
+      <c r="O18" s="119"/>
+      <c r="P18" s="119"/>
+      <c r="Q18" s="119"/>
+      <c r="R18" s="119"/>
+      <c r="S18" s="118"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="V18" s="75" t="s">
+        <v>69</v>
+      </c>
+      <c r="W18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="X18" s="58"/>
+      <c r="Y18" s="121"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AE18" s="119"/>
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="119"/>
+    </row>
+    <row r="19" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="122"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="122"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+      <c r="S19" s="118"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="V19" s="75" t="s">
+        <v>72</v>
+      </c>
+      <c r="W19" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="X19" s="58"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="82"/>
+      <c r="AB19" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC19" s="69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="122"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J20" s="122"/>
+      <c r="K20" s="119"/>
+      <c r="L20" s="119"/>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
+      <c r="S20" s="118"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="V20" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="W20" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" s="58"/>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="70"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC20" s="73" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE20" s="119" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF20" s="119"/>
+      <c r="AG20" s="119"/>
+    </row>
+    <row r="21" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="122"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="119"/>
+      <c r="G21" s="91"/>
+      <c r="H21" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="122"/>
+      <c r="K21" s="119"/>
+      <c r="L21" s="119"/>
+      <c r="N21" s="119"/>
+      <c r="O21" s="119"/>
+      <c r="P21" s="119"/>
+      <c r="Q21" s="119"/>
+      <c r="R21" s="119"/>
+      <c r="S21" s="118"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="V21" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="W21" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="X21" s="58"/>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA21" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB21" s="85"/>
+      <c r="AC21" s="77"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+    </row>
+    <row r="22" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B22" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" s="122"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="119"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="122"/>
+      <c r="K22" s="119"/>
+      <c r="L22" s="119"/>
+      <c r="N22" s="116" t="s">
+        <v>43</v>
+      </c>
+      <c r="O22" s="116"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="116"/>
+      <c r="R22" s="116"/>
+      <c r="S22" s="118"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="W22" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="X22" s="58"/>
+      <c r="Y22" s="121"/>
+      <c r="Z22" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA22" s="86" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB22" s="87"/>
+      <c r="AC22" s="81"/>
+      <c r="AE22" s="119" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF22" s="119"/>
+      <c r="AG22" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B23" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="122"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="91"/>
+      <c r="H23" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="122"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="119"/>
+      <c r="S23" s="118"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="V23" s="75"/>
+      <c r="W23" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X23" s="58"/>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="88"/>
+      <c r="AA23" s="88"/>
+      <c r="AB23" s="88"/>
+      <c r="AC23" s="88"/>
+      <c r="AD23" s="88"/>
+      <c r="AE23" s="119" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF23" s="119"/>
+      <c r="AG23" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="N24" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="O24" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="Z2" s="136" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA2" s="136"/>
-      <c r="AB2" s="136"/>
-      <c r="AC2" s="136"/>
-      <c r="AD2" s="136"/>
-      <c r="AE2" s="136"/>
-      <c r="AF2" s="136"/>
-      <c r="AG2" s="136"/>
-    </row>
-    <row r="3" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="36" t="s">
+      <c r="P24" s="130"/>
+      <c r="Q24" s="128" t="s">
+        <v>52</v>
+      </c>
+      <c r="R24" s="129"/>
+      <c r="S24" s="118"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="75">
+        <v>2</v>
+      </c>
+      <c r="W24" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="X24" s="58"/>
+      <c r="Y24" s="121"/>
+      <c r="Z24" s="88"/>
+      <c r="AA24" s="88"/>
+      <c r="AB24" s="88"/>
+      <c r="AC24" s="88"/>
+      <c r="AD24" s="88"/>
+      <c r="AE24" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF24" s="119"/>
+      <c r="AG24" s="41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
+      <c r="L25" s="88"/>
+      <c r="N25" s="92" t="s">
+        <v>55</v>
+      </c>
+      <c r="O25" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="P25" s="132"/>
+      <c r="Q25" s="131">
+        <v>100</v>
+      </c>
+      <c r="R25" s="133"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="V25" s="51"/>
+      <c r="W25" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="X25" s="60"/>
+      <c r="Y25" s="121"/>
+      <c r="Z25" s="88"/>
+      <c r="AA25" s="88"/>
+      <c r="AB25" s="88"/>
+      <c r="AC25" s="88"/>
+      <c r="AD25" s="88"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+    </row>
+    <row r="26" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="N26" s="93" t="s">
+        <v>56</v>
+      </c>
+      <c r="O26" s="124">
+        <v>1</v>
+      </c>
+      <c r="P26" s="125"/>
+      <c r="Q26" s="124">
+        <v>180</v>
+      </c>
+      <c r="R26" s="127"/>
+      <c r="S26" s="118"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="49"/>
+      <c r="W26" s="50"/>
+      <c r="Y26" s="121"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+    </row>
+    <row r="27" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="88"/>
+      <c r="L27" s="88"/>
+      <c r="N27" s="126" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="126"/>
+      <c r="P27" s="126"/>
+      <c r="Q27" s="126"/>
+      <c r="R27" s="126"/>
+      <c r="U27" s="115" t="s">
+        <v>49</v>
+      </c>
+      <c r="V27" s="116"/>
+      <c r="W27" s="116"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+    </row>
+    <row r="28" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+    </row>
+    <row r="29" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="116"/>
+      <c r="Q29" s="115" t="s">
+        <v>59</v>
+      </c>
+      <c r="R29" s="115"/>
+    </row>
+    <row r="30" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N30" s="102" t="s">
+        <v>34</v>
+      </c>
+      <c r="O30" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q30" s="104" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N31" s="112" t="s">
+        <v>41</v>
+      </c>
+      <c r="O31" s="111" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="113" t="s">
+        <v>42</v>
+      </c>
+      <c r="R31" s="114" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N32" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="O32" s="101" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="Q32" s="106" t="s">
+        <v>8</v>
+      </c>
+      <c r="R32" s="31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="O33" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="R33" s="39" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="O34" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q34" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="R34" s="33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="O35" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q35" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="R35" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="132" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="132" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="133"/>
-      <c r="L3" s="133"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="O3" s="137"/>
-      <c r="Q3" s="138" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="138"/>
-      <c r="S3" s="139" t="s">
-        <v>37</v>
-      </c>
-      <c r="T3" s="47"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="46"/>
-      <c r="W3" s="48"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="141" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="92"/>
-      <c r="AA3" s="92"/>
-      <c r="AB3" s="92"/>
-      <c r="AC3" s="92"/>
-      <c r="AD3" s="92"/>
-      <c r="AE3" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF3" s="125"/>
-      <c r="AG3" s="125"/>
-    </row>
-    <row r="4" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="132"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="4" t="s">
+    </row>
+    <row r="36" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N36" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q36" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="R36" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q37" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="R37" s="39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N38" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q38" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N39" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q39" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N40" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="132"/>
-      <c r="K4" s="133"/>
-      <c r="L4" s="133"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="O4" s="102" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q4" s="101" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="104" t="s">
-        <v>38</v>
-      </c>
-      <c r="S4" s="140"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="25" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="45"/>
-      <c r="W4" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="142"/>
-      <c r="Z4" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA4" s="69" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="71"/>
-      <c r="AE4" s="125"/>
-      <c r="AF4" s="125"/>
-      <c r="AG4" s="125"/>
-    </row>
-    <row r="5" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="132" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="132"/>
-      <c r="K5" s="133"/>
-      <c r="L5" s="133"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="113" t="s">
-        <v>79</v>
-      </c>
-      <c r="O5" s="114" t="s">
+      <c r="Q40" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="R40" s="33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N41" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q41" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="R41" s="40" t="s">
         <v>80</v>
-      </c>
-      <c r="Q5" s="115" t="s">
-        <v>80</v>
-      </c>
-      <c r="R5" s="116" t="s">
-        <v>79</v>
-      </c>
-      <c r="S5" s="140"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="V5" s="105" t="s">
-        <v>71</v>
-      </c>
-      <c r="W5" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="142"/>
-      <c r="Z5" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="73" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="75"/>
-      <c r="AE5" s="125"/>
-      <c r="AF5" s="125"/>
-      <c r="AG5" s="125"/>
-    </row>
-    <row r="6" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="93"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="132"/>
-      <c r="K6" s="133"/>
-      <c r="L6" s="133"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="99" t="s">
-        <v>77</v>
-      </c>
-      <c r="O6" s="100" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="140"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="V6" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="W6" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="142"/>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="77"/>
-      <c r="AB6" s="78" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC6" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="125"/>
-      <c r="AG6" s="125"/>
-    </row>
-    <row r="7" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="132" t="s">
-        <v>81</v>
-      </c>
-      <c r="E7" s="133"/>
-      <c r="F7" s="133"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="132"/>
-      <c r="K7" s="133"/>
-      <c r="L7" s="133"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="140"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="V7" s="105" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="142"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="81"/>
-      <c r="AB7" s="82" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC7" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE7" s="125"/>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="125"/>
-    </row>
-    <row r="8" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="132"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="67"/>
-      <c r="H8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="134" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="135"/>
-      <c r="L8" s="135"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="O8" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="R8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="140"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="V8" s="105" t="s">
-        <v>76</v>
-      </c>
-      <c r="W8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="142"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-    </row>
-    <row r="9" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="132"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="N9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="140"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="105" t="s">
-        <v>74</v>
-      </c>
-      <c r="W9" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="142"/>
-      <c r="Z9" s="68"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC9" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="125"/>
-    </row>
-    <row r="10" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="132" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="N10" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="S10" s="140"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="V10" s="105" t="s">
-        <v>73</v>
-      </c>
-      <c r="W10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="142"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="73"/>
-      <c r="AB10" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="125"/>
-    </row>
-    <row r="11" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="N11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="S11" s="140"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="V11" s="105"/>
-      <c r="W11" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="X11" s="60"/>
-      <c r="Y11" s="142"/>
-      <c r="Z11" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA11" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB11" s="78"/>
-      <c r="AC11" s="79"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-    </row>
-    <row r="12" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="N12" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="R12" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="S12" s="140"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="V12" s="105">
-        <v>1</v>
-      </c>
-      <c r="W12" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="142"/>
-      <c r="Z12" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA12" s="81" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB12" s="82"/>
-      <c r="AC12" s="83"/>
-      <c r="AE12" s="91"/>
-      <c r="AF12" s="91"/>
-      <c r="AG12" s="91"/>
-    </row>
-    <row r="13" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="N13" s="28" t="s">
-        <v>2</v>
-      </c>
-      <c r="O13" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="R13" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="S13" s="140"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="43" t="s">
-        <v>0</v>
-      </c>
-      <c r="V13" s="45"/>
-      <c r="W13" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="142"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
-      <c r="AE13" s="91"/>
-      <c r="AF13" s="91"/>
-      <c r="AG13" s="91"/>
-    </row>
-    <row r="14" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="N14" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q14" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="S14" s="140"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="142"/>
-      <c r="Z14" s="68" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA14" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB14" s="85"/>
-      <c r="AC14" s="71"/>
-      <c r="AE14" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="125"/>
-    </row>
-    <row r="15" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="N15" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="140"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="53"/>
-      <c r="W15" s="54"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="72" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA15" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB15" s="77"/>
-      <c r="AC15" s="75"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="125"/>
-    </row>
-    <row r="16" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="94"/>
-      <c r="H16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="S16" s="140"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="V16" s="53"/>
-      <c r="W16" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="X16" s="60"/>
-      <c r="Y16" s="142"/>
-      <c r="Z16" s="76"/>
-      <c r="AA16" s="74"/>
-      <c r="AB16" s="87" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC16" s="79" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-    </row>
-    <row r="17" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="N17" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="O17" s="125"/>
-      <c r="P17" s="125"/>
-      <c r="Q17" s="125"/>
-      <c r="R17" s="125"/>
-      <c r="S17" s="140"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="106" t="s">
-        <v>71</v>
-      </c>
-      <c r="W17" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="X17" s="60"/>
-      <c r="Y17" s="142"/>
-      <c r="Z17" s="80"/>
-      <c r="AA17" s="88"/>
-      <c r="AB17" s="89" t="s">
-        <v>49</v>
-      </c>
-      <c r="AC17" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-    </row>
-    <row r="18" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>78</v>
-      </c>
-      <c r="D18" s="132"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" s="132"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="125"/>
-      <c r="Q18" s="125"/>
-      <c r="R18" s="125"/>
-      <c r="S18" s="140"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="V18" s="106" t="s">
-        <v>72</v>
-      </c>
-      <c r="W18" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="142"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="125"/>
-    </row>
-    <row r="19" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="40" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J19" s="132"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="N19" s="125"/>
-      <c r="O19" s="125"/>
-      <c r="P19" s="125"/>
-      <c r="Q19" s="125"/>
-      <c r="R19" s="125"/>
-      <c r="S19" s="140"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="V19" s="106" t="s">
-        <v>75</v>
-      </c>
-      <c r="W19" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="X19" s="60"/>
-      <c r="Y19" s="142"/>
-      <c r="Z19" s="68"/>
-      <c r="AA19" s="84"/>
-      <c r="AB19" s="85" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC19" s="71" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="94"/>
-      <c r="H20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="N20" s="125"/>
-      <c r="O20" s="125"/>
-      <c r="P20" s="125"/>
-      <c r="Q20" s="125"/>
-      <c r="R20" s="125"/>
-      <c r="S20" s="140"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="V20" s="106" t="s">
-        <v>76</v>
-      </c>
-      <c r="W20" s="30" t="s">
-        <v>22</v>
-      </c>
-      <c r="X20" s="60"/>
-      <c r="Y20" s="142"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="86"/>
-      <c r="AB20" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC20" s="75" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE20" s="125" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="125"/>
-    </row>
-    <row r="21" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="94"/>
-      <c r="H21" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="N21" s="125"/>
-      <c r="O21" s="125"/>
-      <c r="P21" s="125"/>
-      <c r="Q21" s="125"/>
-      <c r="R21" s="125"/>
-      <c r="S21" s="140"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="106" t="s">
-        <v>74</v>
-      </c>
-      <c r="W21" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="X21" s="60"/>
-      <c r="Y21" s="142"/>
-      <c r="Z21" s="76" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA21" s="74" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB21" s="87"/>
-      <c r="AC21" s="79"/>
-      <c r="AE21" s="91"/>
-      <c r="AF21" s="91"/>
-      <c r="AG21" s="91"/>
-    </row>
-    <row r="22" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="94"/>
-      <c r="H22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="N22" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="O22" s="137"/>
-      <c r="P22" s="137"/>
-      <c r="Q22" s="137"/>
-      <c r="R22" s="137"/>
-      <c r="S22" s="140"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="V22" s="106" t="s">
-        <v>73</v>
-      </c>
-      <c r="W22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="X22" s="60"/>
-      <c r="Y22" s="142"/>
-      <c r="Z22" s="80" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA22" s="88" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="83"/>
-      <c r="AE22" s="125" t="s">
-        <v>63</v>
-      </c>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="132"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="94"/>
-      <c r="H23" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="S23" s="140"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="V23" s="106"/>
-      <c r="W23" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="X23" s="60"/>
-      <c r="Y23" s="142"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="90"/>
-      <c r="AB23" s="90"/>
-      <c r="AC23" s="90"/>
-      <c r="AD23" s="90"/>
-      <c r="AE23" s="125" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="N24" s="97" t="s">
-        <v>53</v>
-      </c>
-      <c r="O24" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="P24" s="128"/>
-      <c r="Q24" s="126" t="s">
-        <v>55</v>
-      </c>
-      <c r="R24" s="127"/>
-      <c r="S24" s="140"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="V24" s="106">
-        <v>2</v>
-      </c>
-      <c r="W24" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="X24" s="60"/>
-      <c r="Y24" s="142"/>
-      <c r="Z24" s="90"/>
-      <c r="AA24" s="90"/>
-      <c r="AB24" s="90"/>
-      <c r="AC24" s="90"/>
-      <c r="AD24" s="90"/>
-      <c r="AE24" s="125" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="42" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="H25" s="98"/>
-      <c r="I25" s="98"/>
-      <c r="J25" s="98"/>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="N25" s="95" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="129">
-        <v>0.8</v>
-      </c>
-      <c r="P25" s="130"/>
-      <c r="Q25" s="129">
-        <v>100</v>
-      </c>
-      <c r="R25" s="131"/>
-      <c r="S25" s="140"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="V25" s="53"/>
-      <c r="W25" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="142"/>
-      <c r="Z25" s="90"/>
-      <c r="AA25" s="90"/>
-      <c r="AB25" s="90"/>
-      <c r="AC25" s="90"/>
-      <c r="AD25" s="90"/>
-      <c r="AE25" s="91"/>
-      <c r="AF25" s="91"/>
-      <c r="AG25" s="91"/>
-    </row>
-    <row r="26" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="91"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-      <c r="N26" s="96" t="s">
-        <v>59</v>
-      </c>
-      <c r="O26" s="121">
-        <v>1</v>
-      </c>
-      <c r="P26" s="122"/>
-      <c r="Q26" s="121">
-        <v>180</v>
-      </c>
-      <c r="R26" s="124"/>
-      <c r="S26" s="140"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="51"/>
-      <c r="W26" s="52"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="142"/>
-      <c r="Z26" s="91"/>
-      <c r="AA26" s="91"/>
-      <c r="AB26" s="91"/>
-      <c r="AC26" s="91"/>
-      <c r="AD26" s="91"/>
-      <c r="AE26" s="91"/>
-      <c r="AF26" s="91"/>
-      <c r="AG26" s="91"/>
-    </row>
-    <row r="27" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="91"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="91"/>
-      <c r="E27" s="91"/>
-      <c r="F27" s="91"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="98"/>
-      <c r="J27" s="98"/>
-      <c r="K27" s="98"/>
-      <c r="L27" s="98"/>
-      <c r="N27" s="123" t="s">
-        <v>60</v>
-      </c>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="U27" s="136" t="s">
-        <v>52</v>
-      </c>
-      <c r="V27" s="137"/>
-      <c r="W27" s="137"/>
-      <c r="Z27" s="91"/>
-      <c r="AA27" s="91"/>
-      <c r="AB27" s="91"/>
-      <c r="AC27" s="91"/>
-      <c r="AD27" s="91"/>
-      <c r="AE27" s="91"/>
-      <c r="AF27" s="91"/>
-      <c r="AG27" s="91"/>
-    </row>
-    <row r="28" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="AE28" s="91"/>
-      <c r="AF28" s="91"/>
-      <c r="AG28" s="91"/>
-    </row>
-    <row r="29" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N29" s="136" t="s">
-        <v>61</v>
-      </c>
-      <c r="O29" s="137"/>
-      <c r="Q29" s="138" t="s">
-        <v>62</v>
-      </c>
-      <c r="R29" s="138"/>
-    </row>
-    <row r="30" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N30" s="108" t="s">
-        <v>37</v>
-      </c>
-      <c r="O30" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q30" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="R30" s="111" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N31" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="O31" s="117" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q31" s="119" t="s">
-        <v>45</v>
-      </c>
-      <c r="R31" s="120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N32" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="O32" s="107" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q32" s="112" t="s">
-        <v>9</v>
-      </c>
-      <c r="R32" s="32" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="R33" s="40" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N34" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="O34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="R34" s="34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N35" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="R35" s="40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N36" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q36" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="R36" s="34" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N37" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q37" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="R37" s="40" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q38" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="R38" s="34" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N39" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q39" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="R39" s="40" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="14:18" ht="14" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="N40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q40" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="R40" s="34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="41" spans="14:18" ht="14" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="N41" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="O41" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q41" s="35" t="s">
-        <v>10</v>
-      </c>
-      <c r="R41" s="41" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="N27:R27"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="AE24:AF24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="D3:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D7:F23"/>
+    <mergeCell ref="J3:L7"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J10:L23"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="Q29:R29"/>
     <mergeCell ref="S3:S26"/>
@@ -3502,20 +3479,6 @@
     <mergeCell ref="AE20:AG20"/>
     <mergeCell ref="AE23:AF23"/>
     <mergeCell ref="AE22:AF22"/>
-    <mergeCell ref="D3:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D7:F23"/>
-    <mergeCell ref="J3:L7"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J10:L23"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="N27:R27"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="AE24:AF24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
